--- a/biology/Zoologie/Ancyluris_aristodorus/Ancyluris_aristodorus.xlsx
+++ b/biology/Zoologie/Ancyluris_aristodorus/Ancyluris_aristodorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancyluris aristodorus est une espèce de papillons de la famille des Riodinidae et du genre Ancyluris.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ancyluris aristodorus a été décrite par A. Morisse (d) en 1838 sous le protonyme de Erycina aristodorus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ancyluris aristodorus a été décrite par A. Morisse (d) en 1838 sous le protonyme de Erycina aristodorus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancyluris aristodorus est un papillon de taille moyenne avec une envergure autour 37 mm[2]. Le dessus est noir avec les ailes antérieures barrées de blanc et d'une ligne bleue et les ailes postérieures avec la même ornementation la ligne bleue est submarginale avec une tache rouge et une autre marque rouge est à l'extrémité de la barre blanche.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancyluris aristodorus est un papillon de taille moyenne avec une envergure autour 37 mm. Le dessus est noir avec les ailes antérieures barrées de blanc et d'une ligne bleue et les ailes postérieures avec la même ornementation la ligne bleue est submarginale avec une tache rouge et une autre marque rouge est à l'extrémité de la barre blanche.
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,13 +617,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancyluris aristodorus est présent de la Guyane à l'Équateur.
-Biotope
-Il réside dans la forêt tropicale amazonienne.
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ancyluris_aristodorus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancyluris_aristodorus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale amazonienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ancyluris_aristodorus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancyluris_aristodorus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
